--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H2">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.8859539989568</v>
+        <v>23.923694</v>
       </c>
       <c r="N2">
-        <v>20.8859539989568</v>
+        <v>71.77108199999999</v>
       </c>
       <c r="O2">
-        <v>0.3490961042687323</v>
+        <v>0.3350100887068322</v>
       </c>
       <c r="P2">
-        <v>0.3490961042687323</v>
+        <v>0.3350100887068321</v>
       </c>
       <c r="Q2">
-        <v>36.80005871542049</v>
+        <v>100.4786136741927</v>
       </c>
       <c r="R2">
-        <v>36.80005871542049</v>
+        <v>904.307523067734</v>
       </c>
       <c r="S2">
-        <v>0.3490961042687323</v>
+        <v>0.3350100887068322</v>
       </c>
       <c r="T2">
-        <v>0.3490961042687323</v>
+        <v>0.3350100887068321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H3">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.03245547303311</v>
+        <v>1.063318333333333</v>
       </c>
       <c r="N3">
-        <v>1.03245547303311</v>
+        <v>3.189955</v>
       </c>
       <c r="O3">
-        <v>0.01725686954423017</v>
+        <v>0.01488994003909267</v>
       </c>
       <c r="P3">
-        <v>0.01725686954423017</v>
+        <v>0.01488994003909267</v>
       </c>
       <c r="Q3">
-        <v>1.819137494536922</v>
+        <v>4.465896948342778</v>
       </c>
       <c r="R3">
-        <v>1.819137494536922</v>
+        <v>40.19307253508501</v>
       </c>
       <c r="S3">
-        <v>0.01725686954423017</v>
+        <v>0.01488994003909267</v>
       </c>
       <c r="T3">
-        <v>0.01725686954423017</v>
+        <v>0.01488994003909267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H4">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.32099156309169</v>
+        <v>5.150636</v>
       </c>
       <c r="N4">
-        <v>3.32099156309169</v>
+        <v>15.451908</v>
       </c>
       <c r="O4">
-        <v>0.05550836782665246</v>
+        <v>0.07212577720048599</v>
       </c>
       <c r="P4">
-        <v>0.05550836782665246</v>
+        <v>0.07212577720048598</v>
       </c>
       <c r="Q4">
-        <v>5.851429363547123</v>
+        <v>21.63247719271067</v>
       </c>
       <c r="R4">
-        <v>5.851429363547123</v>
+        <v>194.692294734396</v>
       </c>
       <c r="S4">
-        <v>0.05550836782665246</v>
+        <v>0.07212577720048599</v>
       </c>
       <c r="T4">
-        <v>0.05550836782665246</v>
+        <v>0.07212577720048598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H5">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.25071463013193</v>
+        <v>1.265554666666667</v>
       </c>
       <c r="N5">
-        <v>1.25071463013193</v>
+        <v>3.796664</v>
       </c>
       <c r="O5">
-        <v>0.02090493950876141</v>
+        <v>0.01772191122087356</v>
       </c>
       <c r="P5">
-        <v>0.02090493950876141</v>
+        <v>0.01772191122087356</v>
       </c>
       <c r="Q5">
-        <v>2.203699760489243</v>
+        <v>5.315281930774222</v>
       </c>
       <c r="R5">
-        <v>2.203699760489243</v>
+        <v>47.837537376968</v>
       </c>
       <c r="S5">
-        <v>0.02090493950876141</v>
+        <v>0.01772191122087356</v>
       </c>
       <c r="T5">
-        <v>0.02090493950876141</v>
+        <v>0.01772191122087356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H6">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.44508769260012</v>
+        <v>5.74491</v>
       </c>
       <c r="N6">
-        <v>5.44508769260012</v>
+        <v>17.23473</v>
       </c>
       <c r="O6">
-        <v>0.09101135150365963</v>
+        <v>0.08044756000945204</v>
       </c>
       <c r="P6">
-        <v>0.09101135150365963</v>
+        <v>0.08044756000945201</v>
       </c>
       <c r="Q6">
-        <v>9.593985834130745</v>
+        <v>24.12840560839</v>
       </c>
       <c r="R6">
-        <v>9.593985834130745</v>
+        <v>217.15565047551</v>
       </c>
       <c r="S6">
-        <v>0.09101135150365963</v>
+        <v>0.08044756000945204</v>
       </c>
       <c r="T6">
-        <v>0.09101135150365963</v>
+        <v>0.08044756000945201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.76195249291742</v>
+        <v>4.199962333333334</v>
       </c>
       <c r="H7">
-        <v>1.76195249291742</v>
+        <v>12.599887</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8934619969819</v>
+        <v>34.26374833333333</v>
       </c>
       <c r="N7">
-        <v>27.8934619969819</v>
+        <v>102.791245</v>
       </c>
       <c r="O7">
-        <v>0.4662223673479641</v>
+        <v>0.4798047228232636</v>
       </c>
       <c r="P7">
-        <v>0.4662223673479641</v>
+        <v>0.4798047228232635</v>
       </c>
       <c r="Q7">
-        <v>49.14695490167958</v>
+        <v>143.9064523988128</v>
       </c>
       <c r="R7">
-        <v>49.14695490167958</v>
+        <v>1295.158071589315</v>
       </c>
       <c r="S7">
-        <v>0.4662223673479641</v>
+        <v>0.4798047228232636</v>
       </c>
       <c r="T7">
-        <v>0.4662223673479641</v>
+        <v>0.4798047228232635</v>
       </c>
     </row>
   </sheetData>
